--- a/data/cl.positions.xlsx
+++ b/data/cl.positions.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSDS-Capstone\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmore\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F5C5D3-CF37-46FF-855B-8E6019BC5FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607F80B-A6BD-4854-AA34-680F52858308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="2160" windowWidth="32475" windowHeight="18105"/>
+    <workbookView xWindow="16575" yWindow="2610" windowWidth="32475" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cl.positions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
   <si>
     <t>Position</t>
   </si>
@@ -51,11 +59,25 @@
   <si>
     <t>Long</t>
   </si>
+  <si>
+    <t>Cumulative Return</t>
+  </si>
+  <si>
+    <t>Perodic Return</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,9 +555,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,11 +931,12 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -928,14 +955,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -957,14 +984,23 @@
       <c r="G2">
         <v>46.54</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>6.44</v>
       </c>
-      <c r="I2">
-        <v>0.12155530388826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <f>(E2-G2)/E2</f>
+        <v>0.12155530388825969</v>
+      </c>
+      <c r="J2" s="2">
+        <f>1+I2</f>
+        <v>1.1215553038882597</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2</f>
+        <v>1.1215553038882597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -986,14 +1022,22 @@
       <c r="G3">
         <v>47.09</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>-0.55000000000000404</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>-1.1817791147400201E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>(1+I3)</f>
+        <v>0.98818220885259977</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3*K2</f>
+        <v>1.1083009975466493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1015,14 +1059,22 @@
       <c r="G4">
         <v>47.96</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>-0.869999999999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>-1.8475260140157101E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J67" si="0">(1+I4)</f>
+        <v>0.9815247398598429</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K67" si="1">J4*K3</f>
+        <v>1.0878248483033794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1044,14 +1096,22 @@
       <c r="G5">
         <v>48.52</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>0.56000000000000205</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1.15416323165705E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0115416323165705</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.100380122727326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1073,14 +1133,22 @@
       <c r="G6">
         <v>49.78</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>-1.26</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>-2.5968672712283598E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97403132728771635</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0718047114611176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1102,14 +1170,22 @@
       <c r="G7">
         <v>52.36</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>-2.58</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>-5.1828043390920002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94817195660908005</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0162551703689182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1131,14 +1207,22 @@
       <c r="G8">
         <v>52.59</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>-0.23000000000000401</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>-4.3926661573721196E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9956073338426279</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0117911006747842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1160,14 +1244,22 @@
       <c r="G9">
         <v>51.59</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1.9015021867275099E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0190150218672751</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0310303305792294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1189,14 +1281,22 @@
       <c r="G10">
         <v>50.51</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>1.0800000000000101</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>2.09342895910061E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0209342895910061</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0526142180966858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1218,14 +1318,22 @@
       <c r="G11">
         <v>52.31</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>0.20000000000000301</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>3.8233607340853199E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0038233607340854</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0566387419662966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1247,14 +1355,22 @@
       <c r="G12">
         <v>54.04</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>-1.97</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>-3.7833685423468398E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96216631457653157</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0166622041964943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1276,14 +1392,22 @@
       <c r="G13">
         <v>53.01</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.190000000000005</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>3.5714285714286598E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0035714285714286</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0202931406400533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1305,14 +1429,22 @@
       <c r="G14">
         <v>52.62</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>0.39000000000000101</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>7.3571024335031196E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0073571024335031</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0277995417879426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1334,14 +1466,22 @@
       <c r="G15">
         <v>53.13</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>0.510000000000005</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>9.5990965556183895E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0095990965556183</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0376654888293853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1363,14 +1503,22 @@
       <c r="G16">
         <v>53.31</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>-1.32</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>-2.5389497980380801E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97461050201961918</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0113196829964406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1392,14 +1540,22 @@
       <c r="G17">
         <v>55.26</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>-1.47</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>-2.7328499721137701E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97267150027886229</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98368183332169123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1421,14 +1577,22 @@
       <c r="G18">
         <v>54.01</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>-0.35000000000000098</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>-6.5225493850167996E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99347745061498316</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97726571998470657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1450,14 +1614,22 @@
       <c r="G19">
         <v>52.64</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>-1.37</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>-2.6025835866261299E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97397416413373872</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95183156275866099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1479,14 +1651,22 @@
       <c r="G20">
         <v>53.1</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>0.69000000000000505</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>1.2994350282486E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0129943502824861</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96419999549507318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1508,14 +1688,22 @@
       <c r="G21">
         <v>55.59</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>-1.1800000000000099</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>-2.1687189854806201E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97831281014519378</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94328920713476827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1537,14 +1725,22 @@
       <c r="G22">
         <v>56.45</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>-0.85999999999999899</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>-1.5470408346825001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.984529591653175</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92869613791124062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1566,14 +1762,22 @@
       <c r="G23">
         <v>57.16</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>-0.70999999999999397</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>-1.2577502214348901E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98742249778565105</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91701546018020463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1595,14 +1799,22 @@
       <c r="G24">
         <v>56.96</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>0.19999999999999599</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>3.49895031490545E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0034989503149054</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92022405171337529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1624,14 +1836,22 @@
       <c r="G25">
         <v>57.26</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>-0.29999999999999699</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>-5.2668539325842201E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99473314606741581</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91537736604775011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1653,14 +1873,22 @@
       <c r="G26">
         <v>56.94</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>1.44</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>2.52897787144362E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0252897787144362</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93852705707530115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1682,14 +1910,22 @@
       <c r="G27">
         <v>57.22</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>0.28000000000000103</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>4.8933939182104402E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0048933939182105</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94311963966846946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1711,14 +1947,22 @@
       <c r="G28">
         <v>55.8</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>1.42</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>2.48164977280671E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0248164977280672</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.96652456606359749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1740,14 +1984,22 @@
       <c r="G29">
         <v>56.59</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>-0.79000000000000603</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>-1.4157706093190101E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98584229390680989</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95284079532542099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1769,14 +2021,22 @@
       <c r="G30">
         <v>58.52</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>8.9999999999996305E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>1.5355741341067401E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0015355741341068</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95430395300464443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1798,14 +2058,22 @@
       <c r="G31">
         <v>59.38</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>-0.85999999999999899</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>-1.46958304853042E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98530416951469579</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94027966387983242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1827,14 +2095,22 @@
       <c r="G32">
         <v>59.41</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>-0.53000000000000103</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>-8.9210570611008393E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9910789429388992</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9318913753449678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1856,14 +2132,22 @@
       <c r="G33">
         <v>62.46</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>0.119999999999997</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>1.9175455417065699E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0019175455417066</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93367831949711544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1885,14 +2169,22 @@
       <c r="G34">
         <v>62.1</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>0.35999999999999899</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>5.76368876080691E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.005763688760807</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93905975073341019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1914,14 +2206,22 @@
       <c r="G35">
         <v>64.61</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>-0.630000000000003</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>-9.8468271334792492E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99015317286652071</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92981299169993015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1943,14 +2243,22 @@
       <c r="G36">
         <v>65.89</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>0.40999999999999698</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>6.1840120663649604E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.006184012066365</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93556296646006543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1972,14 +2280,22 @@
       <c r="G37">
         <v>65.209999999999994</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>0.68000000000000704</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>1.0320230687509599E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0103202306875096</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94521819209662417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2001,14 +2317,22 @@
       <c r="G38">
         <v>63.91</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <v>0.40999999999999698</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>6.41527147551239E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0064152714755124</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.951282023402517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2030,14 +2354,22 @@
       <c r="G39">
         <v>63.69</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>-0.219999999999999</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>-3.45423143350603E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99654576856649402</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.94799607513515083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2059,14 +2391,22 @@
       <c r="G40">
         <v>61.4</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>-0.85000000000000098</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>-1.38436482084691E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98615635179153094</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.93487235096797039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2088,14 +2428,22 @@
       <c r="G41">
         <v>62.12</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>0.71999999999999897</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>1.1590470057952299E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0115904700579523</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9457079609598722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2117,14 +2465,22 @@
       <c r="G42">
         <v>57.91</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <v>-3.51000000000001</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>-6.0611293386289199E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.93938870661371077</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88838737828038405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2146,14 +2502,22 @@
       <c r="G43">
         <v>58.63</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>0.72000000000000597</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>1.22804025243051E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0122804025243051</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89929713288317925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2175,14 +2539,22 @@
       <c r="G44">
         <v>58.81</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>-0.32999999999999802</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>-5.6112905968372399E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99438870940316271</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89425091533766909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2204,14 +2576,22 @@
       <c r="G45">
         <v>56.59</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>3.7748682196905303E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0377486821969053</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92800770894504248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2233,14 +2613,22 @@
       <c r="G46">
         <v>53.25</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>-0.25</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>-4.6948356807511703E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99530516431924887</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9236508652410752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2262,14 +2650,22 @@
       <c r="G47">
         <v>53.48</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>0.22999999999999701</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>4.3006731488406296E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0043006731488406</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9276231857161209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2291,14 +2687,22 @@
       <c r="G48">
         <v>51.68</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>-1.8</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <v>-3.4829721362228998E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96517027863777105</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89531432862848526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2320,14 +2724,22 @@
       <c r="G49">
         <v>53.99</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <v>1.4</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>2.5930727912576401E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0259307279125764</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91853048088038158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2349,14 +2761,22 @@
       <c r="G50">
         <v>53.26</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="5">
         <v>-0.73000000000000398</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>-1.37063462260609E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98629365377393907</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90594078409024481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2378,14 +2798,22 @@
       <c r="G51">
         <v>53.27</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>-1.00000000000051E-2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>-1.8775816748038099E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9998122418325196</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90577068630877822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2407,14 +2835,22 @@
       <c r="G52">
         <v>52.51</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="5">
         <v>0.22999999999999701</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <v>4.3801180727479896E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0043801180727481</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90973806886164477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2436,14 +2872,22 @@
       <c r="G53">
         <v>51.93</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <v>-0.57999999999999796</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <v>-1.11688811862122E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98883111881378782</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89957731245995498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2465,14 +2909,22 @@
       <c r="G54">
         <v>54.11</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <v>-4.1979587906797601E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95802041209320243</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86181342759258162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2494,14 +2946,22 @@
       <c r="G55">
         <v>57.07</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>-3.1</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <v>-5.7439318139707297E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94256068186029274</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81231145194801979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2523,14 +2983,22 @@
       <c r="G56">
         <v>57.43</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <v>-0.35999999999999899</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>-6.30804275451199E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99369195724548798</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80718735657915197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2552,14 +3020,22 @@
       <c r="G57">
         <v>57.9</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="5">
         <v>-0.46999999999999897</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>-8.1838760229844803E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99181612397701557</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80058143532558768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2581,14 +3057,22 @@
       <c r="G58">
         <v>57.83</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="5">
         <v>7.0000000000000298E-2</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <v>1.20898100172712E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0012089810017271</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80154932307123172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2610,14 +3094,22 @@
       <c r="G59">
         <v>58.47</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="5">
         <v>0.96000000000000096</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>1.6153457849570899E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.016153457849571</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.814497116275815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2639,14 +3131,22 @@
       <c r="G60">
         <v>59.09</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="5">
         <v>-0.62000000000000499</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>-1.06037284077305E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98939627159226951</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80586041006594655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2668,14 +3168,22 @@
       <c r="G61">
         <v>57.51</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <v>0.16999999999999499</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>2.9560076508432401E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0029560076508433</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80824253960361314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2697,14 +3205,22 @@
       <c r="G62">
         <v>57.66</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>2.6014568158168301E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0026014568158168</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81034514766709809</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2726,14 +3242,22 @@
       <c r="G63">
         <v>57.83</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="5">
         <v>-0.17000000000000201</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>-2.94831772459247E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99705168227540752</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80795599270519369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2755,14 +3279,22 @@
       <c r="G64">
         <v>60.21</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>-1.6611295681059801E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99983388704318943</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80782178074627264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2784,14 +3316,22 @@
       <c r="G65">
         <v>59.58</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="5">
         <v>0.630000000000003</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>1.0463378176382701E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0104633781763828</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81627432553733981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2813,14 +3353,22 @@
       <c r="G66">
         <v>55.42</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="5">
         <v>-1.36</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>-2.4539877300613501E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97546012269938653</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.79624305374501247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2842,14 +3390,22 @@
       <c r="G67">
         <v>55.76</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <v>0.33999999999999603</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>6.0975609756096904E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0060975609756098</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80109819431662843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2871,14 +3427,22 @@
       <c r="G68">
         <v>56.22</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <v>0.46000000000000102</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>8.1821415866239894E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="2">
+        <f t="shared" ref="J68:J98" si="2">(1+I68)</f>
+        <v>1.0081821415866239</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" ref="K68:K99" si="3">J68*K67</f>
+        <v>0.80765289316731581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2900,14 +3464,22 @@
       <c r="G69">
         <v>56.77</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="5">
         <v>0.55000000000000404</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>9.6882156068346693E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0096882156068347</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81547760853180462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2929,14 +3501,22 @@
       <c r="G70">
         <v>53.95</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <v>4.63</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <v>7.9037214066234096E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0790372140662341</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87993068684355347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2958,14 +3538,22 @@
       <c r="G71">
         <v>55.66</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>-1.70999999999999</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>-3.1696014828544797E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96830398517145522</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85204039074526861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2987,14 +3575,22 @@
       <c r="G72">
         <v>54.69</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="5">
         <v>-0.96999999999999897</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <v>-1.7736332053391798E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98226366794660824</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
+        <v>0.83692831945210888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3016,14 +3612,22 @@
       <c r="G73">
         <v>53.63</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="5">
         <v>-1.06</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <v>-1.97650568711541E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98023494312884585</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82038638362105853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3045,14 +3649,22 @@
       <c r="G74">
         <v>51.09</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>2.54</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <v>4.7361551370501603E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0473615513705017</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85924115547258739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3074,14 +3686,22 @@
       <c r="G75">
         <v>52.54</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>1.45</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>2.7598020555766999E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0275980205557671</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8829545105436809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3103,14 +3723,22 @@
       <c r="G76">
         <v>54.5</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <v>1.96</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>3.5963302752293598E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0359633027522936</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91470847092286656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3132,14 +3760,22 @@
       <c r="G77">
         <v>54.93</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <v>0.43</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>7.8281449117057998E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0078281449117057</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
+        <v>0.92186894138521547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3161,14 +3797,22 @@
       <c r="G78">
         <v>57.1</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="5">
         <v>-2.17</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>-3.9504824321864203E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9604951756781358</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88545067080800965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3190,14 +3834,22 @@
       <c r="G79">
         <v>55.23</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <v>1.87</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>3.2749562171628797E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0327495621716287</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91444879260154688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3219,14 +3871,22 @@
       <c r="G80">
         <v>54.47</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="5">
         <v>0.75999999999999801</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>1.37606373347818E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0137606373347818</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.92703219079776589</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3248,14 +3908,22 @@
       <c r="G81">
         <v>56.14</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="5">
         <v>1.27</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>2.26220163876025E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0226220163876025</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94800352820982803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3277,14 +3945,22 @@
       <c r="G82">
         <v>55.68</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="5">
         <v>0.45000000000000301</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <v>8.0171031533939601E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="2">
+        <f t="shared" si="2"/>
+        <v>1.008017103153394</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
+        <v>0.95560377028526766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3306,14 +3982,22 @@
       <c r="G83">
         <v>55.35</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="5">
         <v>0.32999999999999802</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>5.9267241379310004E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="2">
+        <f t="shared" si="2"/>
+        <v>1.005926724137931</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96126737021691533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3335,14 +4019,22 @@
       <c r="G84">
         <v>54.93</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="5">
         <v>1.29</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>2.3484434735117399E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0234844347351173</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="3"/>
+        <v>0.98384219103577231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3364,14 +4056,22 @@
       <c r="G85">
         <v>55.78</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="5">
         <v>0.85000000000000098</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>1.5238436715668701E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0152384367156686</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99883440800207568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3393,14 +4093,22 @@
       <c r="G86">
         <v>55.1</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="5">
         <v>1.61</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>2.83900546640804E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0283900546640803</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0271913714456189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3422,14 +4130,22 @@
       <c r="G87">
         <v>53.94</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <v>2.1052631578947399E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0210526315789474</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0488164529497372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3451,14 +4167,22 @@
       <c r="G88">
         <v>56.3</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="5">
         <v>3.9999999999999099E-2</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <v>7.1047957371224099E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0007104795737123</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0495616156161314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3480,14 +4204,22 @@
       <c r="G89">
         <v>57.85</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <v>-1.33</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <v>-2.3531493276716199E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97646850672328378</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0248638635147609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3509,14 +4241,22 @@
       <c r="G90">
         <v>55.75</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="5">
         <v>1.65</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="2">
         <v>2.8745644599303101E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0287456445993031</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0543242358980249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3538,14 +4278,22 @@
       <c r="G91">
         <v>55.09</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <v>0.65999999999999703</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <v>1.1838565022421499E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0118385650224215</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0668059219194186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3567,14 +4315,22 @@
       <c r="G92">
         <v>54.85</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>-0.24000000000000199</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <v>-4.3755697356426997E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99562443026435732</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0621380382136636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3596,14 +4352,22 @@
       <c r="G93">
         <v>62.9</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="5">
         <v>8.0500000000000007</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <v>0.12798092209856901</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="2">
+        <f t="shared" si="2"/>
+        <v>1.127980922098569</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1980714437402133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3625,14 +4389,22 @@
       <c r="G94">
         <v>58.11</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="5">
         <v>1.23</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <v>2.0728008088978799E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0207280080889789</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2229050783172351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3654,14 +4426,22 @@
       <c r="G95">
         <v>58.19</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <v>-1.3766993632765201E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99862330063672344</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2212215056745681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3683,14 +4463,22 @@
       <c r="G96">
         <v>58.09</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="5">
         <v>-9.9999999999994302E-2</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <v>-1.7214666896194599E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99827853331038052</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2191192135319024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3712,14 +4500,22 @@
       <c r="G97">
         <v>58.64</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="5">
         <v>0.54999999999999705</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <v>9.3792633015006305E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0093792633015006</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2305536536315365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3741,11 +4537,51 @@
       <c r="G98">
         <v>55.91</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="5">
         <v>-0.5</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>-8.9429440171704504E-3</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99105705598282956</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="3"/>
+        <v>1.219548881196985</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K99" s="2"/>
+      <c r="L99" s="3"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="4">
+        <f>K98-1</f>
+        <v>0.21954888119698501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="4">
+        <f>J101^1/9</f>
+        <v>2.4394320132998335E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="4">
+        <f>J102*12</f>
+        <v>0.29273184159598004</v>
       </c>
     </row>
   </sheetData>
